--- a/Results1.xlsx
+++ b/Results1.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="contract" r:id="rId3" sheetId="1"/>
     <sheet name="upgrade-eligibility" r:id="rId4" sheetId="2"/>
+    <sheet name="current-services" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="261">
   <si>
     <t>contractType</t>
   </si>
@@ -560,7 +561,19 @@
 }</t>
   </si>
   <si>
-    <t>2020-11-01</t>
+    <t>{
+  "source": "SubDetails",
+  "errors": [
+    {
+      "errorCode": "300000017",
+      "errorMessage": "The Subscriber 76652047121 is not Eligible  because either the Subscriber Number entered is Invalid or the Subscriber is not an Active Subscriber"
+    },
+    {
+      "errorCode": "Server.704",
+      "errorMessage": "Application processing error"
+    }
+  ]
+}</t>
   </si>
   <si>
     <t>{
@@ -666,6 +679,247 @@
     }
   ]
 }</t>
+  </si>
+  <si>
+    <t>socCode</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>taxInclusiveInd</t>
+  </si>
+  <si>
+    <t>relatedSoc</t>
+  </si>
+  <si>
+    <t>{
+  "errors": [
+    {
+      "errorCode": "proc-m04-postpaid-services-0001",
+      "errorMessage": "Requested resource not found"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>PRIMEATCH</t>
+  </si>
+  <si>
+    <t>Amazon Prime $12.99 MRC</t>
+  </si>
+  <si>
+    <t>2019-09-12</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>subscriptionLevelServices</t>
+  </si>
+  <si>
+    <t>VWFWIN</t>
+  </si>
+  <si>
+    <t>WiFi Calling</t>
+  </si>
+  <si>
+    <t>2015-07-29</t>
+  </si>
+  <si>
+    <t>TEPMAX</t>
+  </si>
+  <si>
+    <t>$15 Sprint Complete-sales retd</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>2014-09-24</t>
+  </si>
+  <si>
+    <t>REQLSMTUN</t>
+  </si>
+  <si>
+    <t>Unlimited 3G/4G Data</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>ASLCHGBAN</t>
+  </si>
+  <si>
+    <t>Spending Limit Program Charge</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>accountLevelServices</t>
+  </si>
+  <si>
+    <t>PDSHS10G</t>
+  </si>
+  <si>
+    <t>50GB Mobile Hotspot</t>
+  </si>
+  <si>
+    <t>2018-07-15</t>
+  </si>
+  <si>
+    <t>PDSIPIE</t>
+  </si>
+  <si>
+    <t>Premium Intl Experience</t>
+  </si>
+  <si>
+    <t>2017-05-11</t>
+  </si>
+  <si>
+    <t>INTLCALLS</t>
+  </si>
+  <si>
+    <t>International Calls Enabled</t>
+  </si>
+  <si>
+    <t>PDSBYUP2</t>
+  </si>
+  <si>
+    <t>Unlimited Plus</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>PDSIPIE2</t>
+  </si>
+  <si>
+    <t>Premium Can/Mex up to 10GB</t>
+  </si>
+  <si>
+    <t>HOTLINE</t>
+  </si>
+  <si>
+    <t>Hotline</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>PDSBSIC</t>
+  </si>
+  <si>
+    <t>Unlimited Basic</t>
+  </si>
+  <si>
+    <t>PDSIPIE1</t>
+  </si>
+  <si>
+    <t>Premium Can/Mex up to 5GB</t>
+  </si>
+  <si>
+    <t>2019-10-19</t>
+  </si>
+  <si>
+    <t>NWUNL7PM</t>
+  </si>
+  <si>
+    <t>Unlimited Nights&amp;Weekends-7pm</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>VMCDMA2</t>
+  </si>
+  <si>
+    <t>VoiceMail Included</t>
+  </si>
+  <si>
+    <t>LASF999</t>
+  </si>
+  <si>
+    <t>Safe&amp;Found Subscription</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>2019-10-09</t>
+  </si>
+  <si>
+    <t>ANUPGRINC</t>
+  </si>
+  <si>
+    <t>Annual Upgrade Incl ($5 Value)</t>
+  </si>
+  <si>
+    <t>2019-09-21</t>
+  </si>
+  <si>
+    <t>MSREWARDS</t>
+  </si>
+  <si>
+    <t>My Sprint Rewards</t>
+  </si>
+  <si>
+    <t>HULUVOD01</t>
+  </si>
+  <si>
+    <t>Hulu (Incl w Plan)</t>
+  </si>
+  <si>
+    <t>PDSIAMER</t>
+  </si>
+  <si>
+    <t>Sprint Open World</t>
+  </si>
+  <si>
+    <t>2019-08-21</t>
+  </si>
+  <si>
+    <t>2015-07-25</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>TEPPLUS</t>
+  </si>
+  <si>
+    <t>$15 Sprint Complete-smartphone</t>
+  </si>
+  <si>
+    <t>2018-01-14</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>$9 Sprint Complete for phone</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2014-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-24</t>
+  </si>
+  <si>
+    <t>2019-03-15</t>
   </si>
 </sst>
 </file>
@@ -2224,59 +2478,30 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" t="s">
         <v>86</v>
       </c>
       <c r="R8" t="s">
         <v>87</v>
+      </c>
+      <c r="S8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -2471,4 +2696,2211 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:R60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" t="s">
+        <v>194</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" t="s">
+        <v>194</v>
+      </c>
+      <c r="J30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" t="s">
+        <v>194</v>
+      </c>
+      <c r="J31" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I34" t="s">
+        <v>131</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" t="s">
+        <v>194</v>
+      </c>
+      <c r="I35" t="s">
+        <v>194</v>
+      </c>
+      <c r="J35" t="s">
+        <v>131</v>
+      </c>
+      <c r="K35" t="s">
+        <v>132</v>
+      </c>
+      <c r="L35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I36" t="s">
+        <v>194</v>
+      </c>
+      <c r="J36" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I37" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="s">
+        <v>194</v>
+      </c>
+      <c r="K37" t="s">
+        <v>194</v>
+      </c>
+      <c r="L37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M37" t="s">
+        <v>132</v>
+      </c>
+      <c r="N37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>194</v>
+      </c>
+      <c r="I38" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" t="s">
+        <v>194</v>
+      </c>
+      <c r="K38" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" t="s">
+        <v>194</v>
+      </c>
+      <c r="M38" t="s">
+        <v>131</v>
+      </c>
+      <c r="N38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>245</v>
+      </c>
+      <c r="B39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" t="s">
+        <v>194</v>
+      </c>
+      <c r="L39" t="s">
+        <v>194</v>
+      </c>
+      <c r="M39" t="s">
+        <v>194</v>
+      </c>
+      <c r="N39" t="s">
+        <v>131</v>
+      </c>
+      <c r="O39" t="s">
+        <v>132</v>
+      </c>
+      <c r="P39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I40" t="s">
+        <v>194</v>
+      </c>
+      <c r="J40" t="s">
+        <v>194</v>
+      </c>
+      <c r="K40" t="s">
+        <v>194</v>
+      </c>
+      <c r="L40" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" t="s">
+        <v>194</v>
+      </c>
+      <c r="N40" t="s">
+        <v>194</v>
+      </c>
+      <c r="O40" t="s">
+        <v>131</v>
+      </c>
+      <c r="P40" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>217</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" t="s">
+        <v>194</v>
+      </c>
+      <c r="J41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K41" t="s">
+        <v>194</v>
+      </c>
+      <c r="L41" t="s">
+        <v>194</v>
+      </c>
+      <c r="M41" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41" t="s">
+        <v>194</v>
+      </c>
+      <c r="O41" t="s">
+        <v>194</v>
+      </c>
+      <c r="P41" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>132</v>
+      </c>
+      <c r="R41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I43" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" t="s">
+        <v>145</v>
+      </c>
+      <c r="L44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>194</v>
+      </c>
+      <c r="I45" t="s">
+        <v>194</v>
+      </c>
+      <c r="J45" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" t="s">
+        <v>145</v>
+      </c>
+      <c r="M45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" t="s">
+        <v>194</v>
+      </c>
+      <c r="J46" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" t="s">
+        <v>194</v>
+      </c>
+      <c r="L46" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" t="s">
+        <v>145</v>
+      </c>
+      <c r="N46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
+        <v>194</v>
+      </c>
+      <c r="I47" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" t="s">
+        <v>194</v>
+      </c>
+      <c r="L47" t="s">
+        <v>194</v>
+      </c>
+      <c r="M47" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" t="s">
+        <v>145</v>
+      </c>
+      <c r="O47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" t="s">
+        <v>200</v>
+      </c>
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" t="s">
+        <v>194</v>
+      </c>
+      <c r="J48" t="s">
+        <v>194</v>
+      </c>
+      <c r="K48" t="s">
+        <v>194</v>
+      </c>
+      <c r="L48" t="s">
+        <v>194</v>
+      </c>
+      <c r="M48" t="s">
+        <v>194</v>
+      </c>
+      <c r="N48" t="s">
+        <v>144</v>
+      </c>
+      <c r="O48" t="s">
+        <v>145</v>
+      </c>
+      <c r="P48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" t="s">
+        <v>146</v>
+      </c>
+      <c r="K50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I51" t="s">
+        <v>194</v>
+      </c>
+      <c r="J51" t="s">
+        <v>144</v>
+      </c>
+      <c r="K51" t="s">
+        <v>146</v>
+      </c>
+      <c r="L51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s">
+        <v>194</v>
+      </c>
+      <c r="I52" t="s">
+        <v>194</v>
+      </c>
+      <c r="J52" t="s">
+        <v>194</v>
+      </c>
+      <c r="K52" t="s">
+        <v>144</v>
+      </c>
+      <c r="L52" t="s">
+        <v>146</v>
+      </c>
+      <c r="M52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" t="s">
+        <v>194</v>
+      </c>
+      <c r="J53" t="s">
+        <v>194</v>
+      </c>
+      <c r="K53" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53" t="s">
+        <v>146</v>
+      </c>
+      <c r="N53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+      <c r="I54" t="s">
+        <v>156</v>
+      </c>
+      <c r="J54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" t="s">
+        <v>156</v>
+      </c>
+      <c r="K55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s">
+        <v>194</v>
+      </c>
+      <c r="I56" t="s">
+        <v>194</v>
+      </c>
+      <c r="J56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" t="s">
+        <v>156</v>
+      </c>
+      <c r="L56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s">
+        <v>194</v>
+      </c>
+      <c r="I57" t="s">
+        <v>194</v>
+      </c>
+      <c r="J57" t="s">
+        <v>194</v>
+      </c>
+      <c r="K57" t="s">
+        <v>144</v>
+      </c>
+      <c r="L57" t="s">
+        <v>156</v>
+      </c>
+      <c r="M57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>251</v>
+      </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+      <c r="J58" t="s">
+        <v>194</v>
+      </c>
+      <c r="K58" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" t="s">
+        <v>156</v>
+      </c>
+      <c r="N58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" t="s">
+        <v>251</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>194</v>
+      </c>
+      <c r="I59" t="s">
+        <v>194</v>
+      </c>
+      <c r="J59" t="s">
+        <v>194</v>
+      </c>
+      <c r="K59" t="s">
+        <v>194</v>
+      </c>
+      <c r="L59" t="s">
+        <v>194</v>
+      </c>
+      <c r="M59" t="s">
+        <v>144</v>
+      </c>
+      <c r="N59" t="s">
+        <v>156</v>
+      </c>
+      <c r="O59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>251</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s">
+        <v>194</v>
+      </c>
+      <c r="I60" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" t="s">
+        <v>194</v>
+      </c>
+      <c r="K60" t="s">
+        <v>194</v>
+      </c>
+      <c r="L60" t="s">
+        <v>194</v>
+      </c>
+      <c r="M60" t="s">
+        <v>194</v>
+      </c>
+      <c r="N60" t="s">
+        <v>144</v>
+      </c>
+      <c r="O60" t="s">
+        <v>156</v>
+      </c>
+      <c r="P60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>